--- a/src/analysis_examples/circadb/results_lomb/cosinor_10554938_rab30_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10554938_rab30_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2141855618617313, 0.36667147751096063]</t>
+          <t>[0.21440818754418628, 0.3664488518285057]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.636996445294699e-08</v>
+        <v>9.197322747844794e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>9.636996445294699e-08</v>
+        <v>9.197322747844794e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5157369321208467</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.45101447061726085, 0.5321996930775315]</t>
+          <t>[0.4510177089884134, 0.5321964547063789]</t>
         </is>
       </c>
       <c r="U2" t="n">
